--- a/src/main/resources/public/ThirdYear.xlsx
+++ b/src/main/resources/public/ThirdYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="66">
   <si>
     <t>CSE</t>
   </si>
@@ -196,6 +196,27 @@
   </si>
   <si>
     <t>EE694B   /   EE692</t>
+  </si>
+  <si>
+    <t>EE691   /   EE694B</t>
+  </si>
+  <si>
+    <t>EE692   /   EE693</t>
+  </si>
+  <si>
+    <t>EE694B   /   EE691</t>
+  </si>
+  <si>
+    <t>ECE695   /   ECE692</t>
+  </si>
+  <si>
+    <t>ECE692   /   ECE694</t>
+  </si>
+  <si>
+    <t>ECE694   /   ECE695</t>
+  </si>
+  <si>
+    <t>EE693   /   EE692</t>
   </si>
 </sst>
 </file>
@@ -537,26 +558,27 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" t="s">
-        <v>49</v>
+      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -565,30 +587,27 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6"/>
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6"/>
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6"/>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
       <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -597,27 +616,30 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8"/>
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D8"/>
       <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F8"/>
       <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -626,9 +648,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10"/>
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -640,15 +664,12 @@
       <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10"/>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10"/>
       <c r="I10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +679,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
         <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -696,27 +717,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16"/>
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16"/>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -726,25 +745,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
         <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -753,28 +772,29 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20"/>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20"/>
-      <c r="J20" t="s">
+      <c r="J20"/>
+      <c r="K20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -785,26 +805,26 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
         <v>14</v>
-      </c>
-      <c r="B22"/>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23">
@@ -814,25 +834,26 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
         <v>19</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
+      <c r="H24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -851,29 +872,29 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28"/>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28"/>
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
         <v>12</v>
       </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
+      <c r="G28"/>
       <c r="H28" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
         <v>28</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -883,26 +904,27 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B30"/>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
         <v>28</v>
       </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" t="s">
-        <v>34</v>
+      <c r="I30" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -911,28 +933,26 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32"/>
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32"/>
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
@@ -942,25 +962,26 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
         <v>24</v>
       </c>
-      <c r="C34" t="s">
+      <c r="G34" t="s">
         <v>24</v>
       </c>
-      <c r="D34" t="s">
+      <c r="H34" t="s">
         <v>24</v>
-      </c>
-      <c r="E34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -970,25 +991,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37">
@@ -1008,29 +1029,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40"/>
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
       <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40"/>
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40"/>
-      <c r="H40" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40"/>
-      <c r="J40" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40" t="s">
         <v>41</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -1040,7 +1057,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
         <v>55</v>
@@ -1049,16 +1066,16 @@
         <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
@@ -1068,26 +1085,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>38</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
         <v>41</v>
       </c>
-      <c r="C44"/>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45">
@@ -1097,25 +1113,29 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" t="s">
         <v>45</v>
       </c>
-      <c r="C46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" t="s">
-        <v>56</v>
-      </c>
+      <c r="F46"/>
       <c r="G46" t="s">
-        <v>56</v>
+        <v>12</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46"/>
+      <c r="K46" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1125,25 +1145,26 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48" t="s">
-        <v>58</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F48"/>
       <c r="G48" t="s">
-        <v>58</v>
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/public/ThirdYear.xlsx
+++ b/src/main/resources/public/ThirdYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="104">
   <si>
     <t>CSE</t>
   </si>
@@ -217,6 +217,120 @@
   </si>
   <si>
     <t>EE693   /   EE692</t>
+  </si>
+  <si>
+    <t>CS604A  /  CS604B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU601  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS602  /  </t>
+  </si>
+  <si>
+    <t>CS692  /  CS693</t>
+  </si>
+  <si>
+    <t>CS605A  /  CS605B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS601  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS603  /  </t>
+  </si>
+  <si>
+    <t>CS693  /  CS691</t>
+  </si>
+  <si>
+    <t>CS691  /  CS692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU685  /  </t>
+  </si>
+  <si>
+    <t>IT601A  /  IT601B</t>
+  </si>
+  <si>
+    <t>IT604A  /  IT604B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT603  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT605  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT602  /  </t>
+  </si>
+  <si>
+    <t>IT693  /  IT692</t>
+  </si>
+  <si>
+    <t>IT692  /  IT695</t>
+  </si>
+  <si>
+    <t>IT695  /  IT693</t>
+  </si>
+  <si>
+    <t>ECE603A  /  ECE603B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE604  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE601  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE605A  /  </t>
+  </si>
+  <si>
+    <t>ECE695  /  ECE694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE602  /  </t>
+  </si>
+  <si>
+    <t>ECE694  /  ECE692</t>
+  </si>
+  <si>
+    <t>ECE692  /  ECE695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE601  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE602  /  </t>
+  </si>
+  <si>
+    <t>EE604A  /  EE604B</t>
+  </si>
+  <si>
+    <t>EE605A  /  EE605B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE603  /  </t>
+  </si>
+  <si>
+    <t>EE694B  /  EE691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE601(T)  /  </t>
+  </si>
+  <si>
+    <t>EE693  /  EE692</t>
+  </si>
+  <si>
+    <t>EE691  /  EE694B</t>
+  </si>
+  <si>
+    <t>EE692  /  EE693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE602(T)  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE603(T)  /  </t>
   </si>
 </sst>
 </file>
@@ -558,27 +672,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4"/>
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4"/>
-      <c r="I4" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -588,26 +700,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6"/>
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -617,29 +728,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8"/>
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8"/>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
       <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8"/>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -649,27 +756,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10"/>
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -679,25 +784,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -717,25 +822,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -745,25 +850,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -772,30 +877,26 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20"/>
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20"/>
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20" t="s">
-        <v>12</v>
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -805,26 +906,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22"/>
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -834,26 +934,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24"/>
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -873,28 +972,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28"/>
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28"/>
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
-      <c r="G28"/>
-      <c r="H28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" t="s">
-        <v>32</v>
+      <c r="G28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29">
@@ -904,27 +1000,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30"/>
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30"/>
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
       <c r="G30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -934,25 +1028,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -962,26 +1056,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34"/>
+        <v>91</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -991,25 +1084,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
@@ -1029,25 +1122,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -1057,25 +1150,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
@@ -1085,25 +1178,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="G44" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45">
@@ -1113,29 +1206,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46"/>
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46"/>
+        <v>94</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
       <c r="G46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46"/>
-      <c r="I46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46"/>
-      <c r="K46" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
@@ -1145,26 +1234,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48"/>
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>95</v>
+      </c>
       <c r="G48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/public/ThirdYear.xlsx
+++ b/src/main/resources/public/ThirdYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="113">
   <si>
     <t>CSE</t>
   </si>
@@ -331,6 +331,33 @@
   </si>
   <si>
     <t xml:space="preserve">EE603(T)  /  </t>
+  </si>
+  <si>
+    <t>IT692  /  IT693</t>
+  </si>
+  <si>
+    <t>IT695  /  IT692</t>
+  </si>
+  <si>
+    <t>IT693  /  IT695</t>
+  </si>
+  <si>
+    <t>EE692  /  EE694B</t>
+  </si>
+  <si>
+    <t>EE693  /  EE691</t>
+  </si>
+  <si>
+    <t>EE694B  /  EE693</t>
+  </si>
+  <si>
+    <t>EE691  /  EE692</t>
+  </si>
+  <si>
+    <t>EE693  /  EE694B</t>
+  </si>
+  <si>
+    <t>EE692  /  EE691</t>
   </si>
 </sst>
 </file>
@@ -672,25 +699,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -700,25 +727,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
         <v>70</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
         <v>71</v>
-      </c>
-      <c r="G6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -731,19 +758,19 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
         <v>68</v>
@@ -756,25 +783,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -784,25 +811,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -822,25 +849,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
         <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -850,25 +877,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
         <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -878,25 +905,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -906,25 +933,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
         <v>78</v>
       </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
         <v>77</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -934,25 +961,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
         <v>80</v>
       </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -975,22 +1002,22 @@
         <v>84</v>
       </c>
       <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="29">
@@ -1000,25 +1027,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
         <v>88</v>
       </c>
-      <c r="B30" t="s">
+      <c r="F30" t="s">
         <v>88</v>
       </c>
-      <c r="C30" t="s">
+      <c r="G30" t="s">
         <v>88</v>
-      </c>
-      <c r="D30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -1028,16 +1055,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
         <v>90</v>
@@ -1056,25 +1083,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
         <v>91</v>
       </c>
-      <c r="B34" t="s">
+      <c r="F34" t="s">
         <v>91</v>
       </c>
-      <c r="C34" t="s">
+      <c r="G34" t="s">
         <v>91</v>
-      </c>
-      <c r="D34" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -1084,25 +1111,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
         <v>84</v>
       </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
         <v>87</v>
       </c>
-      <c r="D36" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" t="s">
-        <v>67</v>
-      </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -1122,25 +1149,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="G40" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
@@ -1150,25 +1177,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
         <v>98</v>
       </c>
-      <c r="E42" t="s">
-        <v>99</v>
-      </c>
       <c r="F42" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
@@ -1178,25 +1205,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
         <v>92</v>
       </c>
-      <c r="B44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" t="s">
-        <v>100</v>
-      </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E44" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G44" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45">
@@ -1206,25 +1233,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" t="s">
-        <v>94</v>
-      </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
       <c r="G46" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47">
@@ -1234,25 +1261,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G48" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/public/ThirdYear.xlsx
+++ b/src/main/resources/public/ThirdYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="185">
   <si>
     <t>CSE</t>
   </si>
@@ -358,6 +358,222 @@
   </si>
   <si>
     <t>EE692  /  EE691</t>
+  </si>
+  <si>
+    <t>CS604A[DC]  /  CS604B[SLa]</t>
+  </si>
+  <si>
+    <t>CS601[SSK]  /  []</t>
+  </si>
+  <si>
+    <t>CS605A[AH]  /  CS605B[SDe]</t>
+  </si>
+  <si>
+    <t>HU601[AnD]  /  []</t>
+  </si>
+  <si>
+    <t>CS603[BDu]  /  []</t>
+  </si>
+  <si>
+    <t>CS602[DC]  /  []</t>
+  </si>
+  <si>
+    <t>CS692[DC, GY]  /  CS691[SSK, SDe]</t>
+  </si>
+  <si>
+    <t>CS691[SSK, SDe]  /  CS693[BDu, AP]</t>
+  </si>
+  <si>
+    <t>CS693[BDu, AP]  /  CS692[DC, SSK]</t>
+  </si>
+  <si>
+    <t>IT602[SU]  /  []</t>
+  </si>
+  <si>
+    <t>IT603[ARC]  /  []</t>
+  </si>
+  <si>
+    <t>IT604A[AB]  /  IT604B[RG]</t>
+  </si>
+  <si>
+    <t>IT601A[AB]  /  IT601B[SL]</t>
+  </si>
+  <si>
+    <t>IT693[SU, AD]  /  IT692[ARC, KDa]</t>
+  </si>
+  <si>
+    <t>IT605[AGh]  /  []</t>
+  </si>
+  <si>
+    <t>HU601[SA]  /  []</t>
+  </si>
+  <si>
+    <t>HU685[ACh, SSR]  /  []</t>
+  </si>
+  <si>
+    <t>IT692[ARC, KDa]  /  IT695[AGh, AB]</t>
+  </si>
+  <si>
+    <t>IT695[AGh, AB]  /  IT693[SU, AD]</t>
+  </si>
+  <si>
+    <t>ECE603A[PC]  /  ECE603B[JA]</t>
+  </si>
+  <si>
+    <t>ECE604[AnC]  /  []</t>
+  </si>
+  <si>
+    <t>HU601[TR]  /  []</t>
+  </si>
+  <si>
+    <t>ECE601[SSG]  /  []</t>
+  </si>
+  <si>
+    <t>ECE695[AD]  /  ECE692[SD]</t>
+  </si>
+  <si>
+    <t>ECE602[TD]  /  []</t>
+  </si>
+  <si>
+    <t>ECE605A[AD]  /  []</t>
+  </si>
+  <si>
+    <t>ECE694[TD]  /  ECE695[AD]</t>
+  </si>
+  <si>
+    <t>ECE692[SD]  /  ECE694[TD]</t>
+  </si>
+  <si>
+    <t>HU685[ACh, AnC]  /  []</t>
+  </si>
+  <si>
+    <t>EE602[ABo]  /  []</t>
+  </si>
+  <si>
+    <t>EE604A[DC]  /  EE604B[GY]</t>
+  </si>
+  <si>
+    <t>EE603[SKB]  /  []</t>
+  </si>
+  <si>
+    <t>EE693[SDG, SMo]  /  EE694B[AP, DC]</t>
+  </si>
+  <si>
+    <t>EE605A[IB]  /  EE605B[JA]</t>
+  </si>
+  <si>
+    <t>EE694B[GY, SDe]  /  EE693[SDG, SMo]</t>
+  </si>
+  <si>
+    <t>EE603(T)[SKB, SDG]  /  []</t>
+  </si>
+  <si>
+    <t>EE691[PG, ASG]  /  EE692[ABo, SDC]</t>
+  </si>
+  <si>
+    <t>EE601[PG]  /  []</t>
+  </si>
+  <si>
+    <t>EE605A[IB]  /  EE605B[SD]</t>
+  </si>
+  <si>
+    <t>EE602(T)[ABo, SDC]  /  []</t>
+  </si>
+  <si>
+    <t>EE601(T)[PG, ASG]  /  []</t>
+  </si>
+  <si>
+    <t>EE692[ABo, SDC]  /  EE691[PG, ASG]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS601[SSK]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS602[DC]  /  </t>
+  </si>
+  <si>
+    <t>CS692[DC, SSK]  /  CS693[BDu, AP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU601[AnD]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS603[BDu]  /  </t>
+  </si>
+  <si>
+    <t>CS691[SSK, SDe]  /  CS692[DC, GY]</t>
+  </si>
+  <si>
+    <t>CS693[BDu, AP]  /  CS691[SSK, SDe]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT605[AGh]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT603[ARC]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT602[SU]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU601[SA]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU685[ACh, SSR]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE602[TD]  /  </t>
+  </si>
+  <si>
+    <t>ECE694[PP]  /  ECE695[SU]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE601[SSG]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE604[AnC]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU685[ACh, AnC]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE605A[AD]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU601[TR]  /  </t>
+  </si>
+  <si>
+    <t>ECE695[SU]  /  ECE692[SD]</t>
+  </si>
+  <si>
+    <t>ECE692[SD]  /  ECE694[PP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE603(T)[SKB, SDG]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE602[ABo]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE603[SKB]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE601[PG]  /  </t>
+  </si>
+  <si>
+    <t>EE693[SDG, SMo]  /  EE692[ABo, SDC]</t>
+  </si>
+  <si>
+    <t>EE691[PG, ASG]  /  EE694B[AP, GY]</t>
+  </si>
+  <si>
+    <t>EE694B[GY, DC]  /  EE693[SDG, SMo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE602(T)[ABo, SDC]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE601(T)[PG, ASG]  /  </t>
   </si>
 </sst>
 </file>
@@ -699,25 +915,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
@@ -727,25 +943,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
@@ -755,25 +971,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9">
@@ -783,25 +999,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -811,22 +1027,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -849,25 +1065,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
@@ -877,25 +1093,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19">
@@ -905,25 +1121,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
@@ -936,22 +1152,22 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
@@ -961,25 +1177,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -999,25 +1215,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29">
@@ -1027,25 +1243,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31">
@@ -1055,25 +1271,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33">
@@ -1083,25 +1299,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35">
@@ -1111,25 +1327,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37">
@@ -1149,25 +1365,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="F40" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="G40" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1177,25 +1393,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="F42" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="G42" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43">
@@ -1205,25 +1421,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="G44" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45">
@@ -1233,25 +1449,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="G46" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47">
@@ -1261,7 +1477,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -1270,16 +1486,16 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="F48" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="G48" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
